--- a/贝叶斯危化品仓储风险分析/code/data/问卷数据.xlsx
+++ b/贝叶斯危化品仓储风险分析/code/data/问卷数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProjects\jupyter-notebook\机器学习实战\贝叶斯危化品仓储风险分析\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B449943D-94D3-4385-BFE2-48810FE260C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D3B0BA-80E7-4842-93F1-1ABB0ABA471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="288">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>提交答卷时间</t>
   </si>
@@ -599,8 +602,301 @@
     <t>39.144.50.98(河北-石家庄)</t>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:06:51</t>
+  </si>
+  <si>
+    <t>1497秒</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:15:48</t>
+  </si>
+  <si>
+    <t>32秒</t>
+  </si>
+  <si>
+    <t>218.12.18.84(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:21:58</t>
+  </si>
+  <si>
+    <t>38秒</t>
+  </si>
+  <si>
+    <t>36.98.109.159(河北-廊坊)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:24:04</t>
+  </si>
+  <si>
+    <t>66秒</t>
+  </si>
+  <si>
+    <t>27.128.75.110(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:32:52</t>
+  </si>
+  <si>
+    <t>27.128.78.211(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:36:18</t>
+  </si>
+  <si>
+    <t>36秒</t>
+  </si>
+  <si>
+    <t>124.236.175.158(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:45:21</t>
+  </si>
+  <si>
+    <t>221.192.180.220(河北-邯郸)</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:45:29</t>
+  </si>
+  <si>
+    <t>218.12.16.95(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:47:34</t>
+  </si>
+  <si>
+    <t>30秒</t>
+  </si>
+  <si>
+    <t>218.12.18.68(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:49:09</t>
+  </si>
+  <si>
+    <t>23秒</t>
+  </si>
+  <si>
+    <t>106.119.55.185(河北-唐山)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:52:12</t>
+  </si>
+  <si>
+    <t>36.98.38.6(河北-廊坊)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:52:27</t>
+  </si>
+  <si>
+    <t>25秒</t>
+  </si>
+  <si>
+    <t>218.12.19.177(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:54:17</t>
+  </si>
+  <si>
+    <t>53秒</t>
+  </si>
+  <si>
+    <t>36.143.67.42(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:56:20</t>
+  </si>
+  <si>
+    <t>39.144.50.15(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:58:21</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:58:52</t>
+  </si>
+  <si>
+    <t>33秒</t>
+  </si>
+  <si>
+    <t>60.1.62.255(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:58:56</t>
+  </si>
+  <si>
+    <t>106.114.67.64(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:59:00</t>
+  </si>
+  <si>
+    <t>17秒</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2023/12/25 10:59:05</t>
+  </si>
+  <si>
+    <t>35秒</t>
+  </si>
+  <si>
+    <t>39.144.87.135(河北-保定)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2023/12/25 12:47:17</t>
+  </si>
+  <si>
+    <t>106.116.96.144(河北-唐山)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:51:05</t>
+  </si>
+  <si>
+    <t>44秒</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:51:30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:51:51</t>
+  </si>
+  <si>
+    <t>15秒</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:52:14</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:52:40</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2023/12/25 15:53:11</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2023/12/25 16:42:18</t>
+  </si>
+  <si>
+    <t>218.12.16.17(河北-石家庄)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:19:33</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:20:02</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:20:26</t>
+  </si>
+  <si>
+    <t>19秒</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:20:48</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:21:10</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2023/12/26 8:21:31</t>
   </si>
 </sst>
 </file>
@@ -613,7 +909,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -628,12 +924,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -663,9 +953,8 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1009,11 +1298,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1037,3728 +1324,6962 @@
     <col min="26" max="32" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>13</v>
-      </c>
       <c r="AF1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" t="s">
-        <v>40</v>
-      </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="W9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" t="s">
         <v>41</v>
       </c>
-      <c r="S9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
       <c r="Y9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
         <v>41</v>
       </c>
-      <c r="T13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
-      </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" t="s">
         <v>41</v>
       </c>
-      <c r="U14" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14" t="s">
-        <v>40</v>
-      </c>
       <c r="X14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="R15" t="s">
-        <v>40</v>
-      </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" t="s">
         <v>41</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>41</v>
       </c>
-      <c r="S17" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" t="s">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V17" t="s">
-        <v>40</v>
-      </c>
       <c r="W17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" t="s">
+        <v>72</v>
+      </c>
+      <c r="V22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" t="s">
         <v>41</v>
       </c>
-      <c r="U22" t="s">
-        <v>71</v>
-      </c>
-      <c r="V22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" t="s">
-        <v>40</v>
-      </c>
       <c r="Y22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" t="s">
+        <v>40</v>
+      </c>
+      <c r="U28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s">
         <v>41</v>
       </c>
-      <c r="T28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" t="s">
-        <v>40</v>
-      </c>
       <c r="W28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s">
+        <v>42</v>
+      </c>
+      <c r="T35" t="s">
         <v>41</v>
       </c>
-      <c r="T35" t="s">
-        <v>40</v>
-      </c>
       <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s">
         <v>41</v>
       </c>
-      <c r="V35" t="s">
-        <v>40</v>
-      </c>
       <c r="W35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" t="s">
         <v>41</v>
       </c>
-      <c r="X35" t="s">
-        <v>40</v>
-      </c>
       <c r="Y35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" t="s">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="F38" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>38</v>
-      </c>
-      <c r="R38" t="s">
-        <v>38</v>
-      </c>
-      <c r="S38" t="s">
-        <v>38</v>
-      </c>
-      <c r="T38" t="s">
-        <v>38</v>
-      </c>
-      <c r="U38" t="s">
-        <v>38</v>
-      </c>
-      <c r="V38" t="s">
-        <v>38</v>
-      </c>
-      <c r="W38" t="s">
-        <v>38</v>
-      </c>
-      <c r="X38" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s">
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" t="s">
+        <v>72</v>
+      </c>
+      <c r="S40" t="s">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s">
+        <v>72</v>
+      </c>
+      <c r="V40" t="s">
+        <v>72</v>
+      </c>
+      <c r="W40" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>42</v>
+      </c>
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s">
+        <v>42</v>
+      </c>
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s">
+        <v>42</v>
+      </c>
+      <c r="X41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>42</v>
+      </c>
+      <c r="R42" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" t="s">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s">
+        <v>72</v>
+      </c>
+      <c r="V42" t="s">
+        <v>72</v>
+      </c>
+      <c r="W42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>42</v>
+      </c>
+      <c r="R43" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43" t="s">
+        <v>42</v>
+      </c>
+      <c r="T43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s">
+        <v>42</v>
+      </c>
+      <c r="V43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" t="s">
+        <v>38</v>
+      </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" t="s">
+        <v>38</v>
+      </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" t="s">
+        <v>72</v>
+      </c>
+      <c r="S47" t="s">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s">
+        <v>72</v>
+      </c>
+      <c r="V47" t="s">
+        <v>72</v>
+      </c>
+      <c r="W47" t="s">
+        <v>72</v>
+      </c>
+      <c r="X47" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" t="s">
+        <v>38</v>
+      </c>
+      <c r="O49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s">
+        <v>42</v>
+      </c>
+      <c r="S49" t="s">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" t="s">
+        <v>38</v>
+      </c>
+      <c r="O51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" t="s">
+        <v>38</v>
+      </c>
+      <c r="O52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
         <v>51</v>
       </c>
-      <c r="Z38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>51</v>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" t="s">
+        <v>38</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" t="s">
+        <v>38</v>
+      </c>
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>41</v>
+      </c>
+      <c r="R53" t="s">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s">
+        <v>39</v>
+      </c>
+      <c r="X53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s">
+        <v>42</v>
+      </c>
+      <c r="X54" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" t="s">
+        <v>38</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+      <c r="O55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s">
+        <v>42</v>
+      </c>
+      <c r="T55" t="s">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s">
+        <v>42</v>
+      </c>
+      <c r="V55" t="s">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>41</v>
+      </c>
+      <c r="R56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s">
+        <v>42</v>
+      </c>
+      <c r="U56" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" t="s">
+        <v>38</v>
+      </c>
+      <c r="O57" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>39</v>
+      </c>
+      <c r="R57" t="s">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O58" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>42</v>
+      </c>
+      <c r="R58" t="s">
+        <v>42</v>
+      </c>
+      <c r="S58" t="s">
+        <v>42</v>
+      </c>
+      <c r="T58" t="s">
+        <v>42</v>
+      </c>
+      <c r="U58" t="s">
+        <v>42</v>
+      </c>
+      <c r="V58" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" t="s">
+        <v>42</v>
+      </c>
+      <c r="X58" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" t="s">
+        <v>38</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" t="s">
+        <v>38</v>
+      </c>
+      <c r="P59" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>42</v>
+      </c>
+      <c r="R59" t="s">
+        <v>42</v>
+      </c>
+      <c r="S59" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" t="s">
+        <v>38</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60" t="s">
+        <v>38</v>
+      </c>
+      <c r="P60" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>42</v>
+      </c>
+      <c r="R60" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U60" t="s">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s">
+        <v>42</v>
+      </c>
+      <c r="W60" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" t="s">
+        <v>38</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" t="s">
+        <v>38</v>
+      </c>
+      <c r="O61" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" t="s">
+        <v>38</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" t="s">
+        <v>38</v>
+      </c>
+      <c r="O62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" t="s">
+        <v>38</v>
+      </c>
+      <c r="O63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P63" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
+      </c>
+      <c r="N64" t="s">
+        <v>38</v>
+      </c>
+      <c r="O64" t="s">
+        <v>38</v>
+      </c>
+      <c r="P64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64" t="s">
+        <v>42</v>
+      </c>
+      <c r="S64" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s">
+        <v>42</v>
+      </c>
+      <c r="U64" t="s">
+        <v>42</v>
+      </c>
+      <c r="V64" t="s">
+        <v>42</v>
+      </c>
+      <c r="W64" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>274</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" t="s">
+        <v>38</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+      <c r="N65" t="s">
+        <v>38</v>
+      </c>
+      <c r="O65" t="s">
+        <v>38</v>
+      </c>
+      <c r="P65" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>72</v>
+      </c>
+      <c r="R65" t="s">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s">
+        <v>72</v>
+      </c>
+      <c r="V65" t="s">
+        <v>42</v>
+      </c>
+      <c r="W65" t="s">
+        <v>42</v>
+      </c>
+      <c r="X65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" t="s">
+        <v>38</v>
+      </c>
+      <c r="O66" t="s">
+        <v>38</v>
+      </c>
+      <c r="P66" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s">
+        <v>42</v>
+      </c>
+      <c r="T66" t="s">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s">
+        <v>42</v>
+      </c>
+      <c r="X66" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
+      <c r="O67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>42</v>
+      </c>
+      <c r="R67" t="s">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s">
+        <v>42</v>
+      </c>
+      <c r="T67" t="s">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s">
+        <v>42</v>
+      </c>
+      <c r="X67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68" t="s">
+        <v>41</v>
+      </c>
+      <c r="S68" t="s">
+        <v>42</v>
+      </c>
+      <c r="T68" t="s">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s">
+        <v>42</v>
+      </c>
+      <c r="W68" t="s">
+        <v>42</v>
+      </c>
+      <c r="X68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N69" t="s">
+        <v>38</v>
+      </c>
+      <c r="O69" t="s">
+        <v>38</v>
+      </c>
+      <c r="P69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s">
+        <v>41</v>
+      </c>
+      <c r="S69" t="s">
+        <v>42</v>
+      </c>
+      <c r="T69" t="s">
+        <v>42</v>
+      </c>
+      <c r="U69" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s">
+        <v>41</v>
+      </c>
+      <c r="W69" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" t="s">
+        <v>38</v>
+      </c>
+      <c r="P70" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>41</v>
+      </c>
+      <c r="R70" t="s">
+        <v>42</v>
+      </c>
+      <c r="S70" t="s">
+        <v>41</v>
+      </c>
+      <c r="T70" t="s">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W70" t="s">
+        <v>41</v>
+      </c>
+      <c r="X70" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" t="s">
+        <v>38</v>
+      </c>
+      <c r="O71" t="s">
+        <v>38</v>
+      </c>
+      <c r="P71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s">
+        <v>42</v>
+      </c>
+      <c r="S71" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s">
+        <v>42</v>
+      </c>
+      <c r="U71" t="s">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s">
+        <v>41</v>
+      </c>
+      <c r="W71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X71" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
